--- a/SAO_JERONIMO.xlsx
+++ b/SAO_JERONIMO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F695D0-3A08-44ED-B960-847FEF8D86A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E125BBA3-AFF1-4F3F-A7E6-3AC9BE008412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{AD263237-BD18-4231-AC6B-F5EBE6467E48}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E7470218-1C8D-4829-8F17-974FE109EA24}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,10 +1231,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30489D50-CE3D-40E5-A90D-2A1740C792C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7927E4F7-DFE0-485E-A10F-137391448BCF}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1272,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E4E7DF-4B27-463F-AC85-CBCE64197741}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146BF93E-2092-4626-96B3-CF4B29837168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4EB63CD-9ADD-484B-9A06-62FAAC27C49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0627B9-28B6-4F73-B395-EC4B27023644}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1354,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A49A259-E2BC-4DC7-520F-712523CE03B4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62ADA3F7-3F8C-C988-C6E5-A2D68F6D8732}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C559B7A1-A265-6BDF-2FE5-6AA7AB1DE921}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A6877E-1712-0B03-2F65-6FB7DF379569}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,7 +1422,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5234E2-ECED-DBE2-7B38-DC9A0CA943D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152532D1-67E3-7D60-E6B8-236CEF869DB7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1453,7 +1453,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D38E63B-E079-3C14-0E15-415EA0C8301B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F428E4-9242-2714-9063-E3C7EEFA0E87}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1484,7 +1484,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBF68D1-2746-C41B-9B2B-A08C2A969214}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24F67B1-C620-891D-5380-30DF508781AA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1527,7 +1527,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46B6207-E4E8-4783-8E73-745155F9372E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3552572B-696C-4244-81C1-97E1414495C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1565,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3B6066-866B-457D-BCFF-20116C221669}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FE84CE-B0B7-42B6-A1A8-1F3C44389759}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1608,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C44550-E1C2-4F6F-9447-3089DF9881C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90997E0-CD5C-4B3C-B13A-B828E095173F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF13DDE0-3741-4B50-AA04-A7E40C56F5A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D340B226-B4C4-4087-9E67-0DAA2BE646A6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_JERONIMO.xlsx
+++ b/SAO_JERONIMO.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E125BBA3-AFF1-4F3F-A7E6-3AC9BE008412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66F8F78-0753-46F2-ABB7-C4B60A0D3230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="298">
   <si>
     <t>COMARCA</t>
   </si>
@@ -920,15 +919,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SÃO JERÔNIMO</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,27 +1171,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{E7470218-1C8D-4829-8F17-974FE109EA24}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B2B6D22B-E760-4814-B027-BECA2B02E225}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,10 +1206,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7927E4F7-DFE0-485E-A10F-137391448BCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493A1EDA-BD55-416C-9092-A8CB93EDB30C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1247,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146BF93E-2092-4626-96B3-CF4B29837168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC97DD13-EA33-4692-8298-90550C1BBED4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1310,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0627B9-28B6-4F73-B395-EC4B27023644}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D7BBC9-B6FC-499B-A588-F76591E0C287}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1329,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62ADA3F7-3F8C-C988-C6E5-A2D68F6D8732}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AABBCE5-D2EF-DACC-E7B2-A9B6C3B13646}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1378,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A6877E-1712-0B03-2F65-6FB7DF379569}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8355E59-1A75-C5FC-EA17-9536876C0A7D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,7 +1397,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152532D1-67E3-7D60-E6B8-236CEF869DB7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C327997D-FA82-C5DB-A631-2E56579E5542}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1453,7 +1428,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F428E4-9242-2714-9063-E3C7EEFA0E87}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BA9CD0-80CD-254D-D4B9-964BBDD0C17D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1484,7 +1459,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24F67B1-C620-891D-5380-30DF508781AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CB1B61-E346-9A85-DF0E-C53BFA6539AC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1527,7 +1502,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3552572B-696C-4244-81C1-97E1414495C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58906F3-68F7-4F33-9A5F-C82624D0EC59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1540,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FE84CE-B0B7-42B6-A1A8-1F3C44389759}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89ABC021-536A-4220-9DF1-1D9321EF427B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1583,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90997E0-CD5C-4B3C-B13A-B828E095173F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6353E47C-245D-4BB6-A919-DF0B0B92B726}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D340B226-B4C4-4087-9E67-0DAA2BE646A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3182B392-C4F8-4B57-9861-F33EA1AAF501}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1933,98 +1908,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5461,52 +5436,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="32">
-        <v>83</v>
-      </c>
-      <c r="C2" s="30">
-        <v>5.4886919719613807E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_JERONIMO.xlsx
+++ b/SAO_JERONIMO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66F8F78-0753-46F2-ABB7-C4B60A0D3230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBF37F15-54B6-4A6C-9070-A550F2D4D4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,7 +1176,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B2B6D22B-E760-4814-B027-BECA2B02E225}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{86DA1C19-B025-4B63-8FC5-63002406194F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1206,10 +1206,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493A1EDA-BD55-416C-9092-A8CB93EDB30C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B101163C-0361-4CF7-8DCF-DE07268335E6}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,7 +1247,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC97DD13-EA33-4692-8298-90550C1BBED4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A02FAE0-9FD1-4FC3-AC84-E2819378E445}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1310,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D7BBC9-B6FC-499B-A588-F76591E0C287}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A77782-3DAA-4EE4-83F2-0454B2829675}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1329,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AABBCE5-D2EF-DACC-E7B2-A9B6C3B13646}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E8AB98-EF5D-CA46-2351-41762FD104FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1378,7 +1378,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8355E59-1A75-C5FC-EA17-9536876C0A7D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE9C4D9-E5E3-9062-1E6E-A5D1FCAD1D83}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C327997D-FA82-C5DB-A631-2E56579E5542}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67820EFD-849C-7520-E023-703F81A94A28}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BA9CD0-80CD-254D-D4B9-964BBDD0C17D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6D9C4E-8488-900A-EBEC-9C851ADA7CC0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CB1B61-E346-9A85-DF0E-C53BFA6539AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F0E7FB-F3C2-343A-5522-4051B7B8DCEB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,7 +1502,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58906F3-68F7-4F33-9A5F-C82624D0EC59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD41A659-30B7-4D4C-AC39-CEA27E7F15F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1540,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89ABC021-536A-4220-9DF1-1D9321EF427B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8C776D-2278-4795-BC6A-157D4323601F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,50 +1565,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6353E47C-245D-4BB6-A919-DF0B0B92B726}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1896,7 +1852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3182B392-C4F8-4B57-9861-F33EA1AAF501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13388E79-8B8B-44A2-BFF0-56B06F834F97}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
